--- a/Mulu-Wap/Midterm-WAP.xlsx
+++ b/Mulu-Wap/Midterm-WAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MUM Study Material\WAP\WAP_Course_Levi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WAP_master2\labs\Mulu-Wap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8C08026F-E240-409E-A580-1A7C21F90C54}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D98AB4C-7F0F-4D9C-B355-97071B353067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{0631688A-0040-4316-88EE-BFE1E2E56E91}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0631688A-0040-4316-88EE-BFE1E2E56E91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,25 +48,13 @@
     <t>What is the correct HTML for inserting an image?</t>
   </si>
   <si>
-    <t>onsite links may contain a _____ pathname, while hyperlinks to pages on other Websites must contain an ____ pathname</t>
-  </si>
-  <si>
     <t>To test if x&lt;y you use</t>
   </si>
   <si>
-    <t>To use the caption in fieldset</t>
-  </si>
-  <si>
-    <t>Which of the following is a component of CSS style rule?</t>
-  </si>
-  <si>
     <t>Which is the correct CSS syntax?</t>
   </si>
   <si>
     <t>How do you add a background color for all &lt;h1&gt; elements?</t>
-  </si>
-  <si>
-    <t>Which of the following property is used to underline, overline, and strikethrough text?</t>
   </si>
   <si>
     <t>Which property is used to change the font to italic?</t>
@@ -307,6 +295,22 @@
   </si>
   <si>
     <t>Servlet extends which class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onsite links may contain a _relative pathname.____ pathname, while hyperlinks to pages on other Websites must contain an _absolute ___ pathname ******************************************************Hyperlinks to pages on another Web site must contain an absolute pathname, while onsite links may contain a relative pathname. True. Every Web page is composed of a head and a body. True. It is possible to create a list within a list. True.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To use the caption in fieldset&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&lt;legend&gt; </t>
+  </si>
+  <si>
+    <t>Which of the following is a component of CSS style rule?**********A. Selector
+B. Property
+C. Value
+D. All of the above
+Answer: Option D</t>
+  </si>
+  <si>
+    <t>Which of the following property is used to underline, overline, and strikethrough text?((((((text Decoration</t>
   </si>
 </sst>
 </file>
@@ -682,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54898DBC-2B32-42D6-B406-5423C5D399CA}">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,269 +730,269 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="255" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Mulu-Wap/Midterm-WAP.xlsx
+++ b/Mulu-Wap/Midterm-WAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WAP_master2\labs\Mulu-Wap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D98AB4C-7F0F-4D9C-B355-97071B353067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1353A433-650D-4CAD-8B76-9E4C3FC9DDF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0631688A-0040-4316-88EE-BFE1E2E56E91}"/>
   </bookViews>
@@ -90,16 +90,7 @@
     <t>To change the border style</t>
   </si>
   <si>
-    <t>The float property has values of only</t>
-  </si>
-  <si>
     <t>To move element after float element</t>
-  </si>
-  <si>
-    <t>If position is fixed, that is mean that</t>
-  </si>
-  <si>
-    <t>If only one attribute should be selected,they must have the same _____  attribute</t>
   </si>
   <si>
     <t>Which represent each choice in dropbox</t>
@@ -161,9 +152,6 @@
     <t>To let user login without password second time</t>
   </si>
   <si>
-    <t>A user types the URL http://www.javaprepare.com/scwd/index.html . Which HTTP request gets generated.</t>
-  </si>
-  <si>
     <t>The difference between redirect  and forward</t>
   </si>
   <si>
@@ -202,35 +190,6 @@
         // TODO
     }
 }</t>
-  </si>
-  <si>
-    <t>Consider this form.
-&lt;form name="form" method="post" action="processor"&gt;
-   &lt;input type="text" name="name" value="OK"/&gt;
-   &lt;input name="submit" type="submit" value="OK"/&gt;
-&lt;/form&gt;
-And this servlet.
-public class Processor extends HttpServlet {
-public void doPost(HttpServletRequest request,
-                   HttpServletResponse response)
-                   throws ServletException, IOException {
-    response.getWriter().format("%s %s",
-    request.getParameter("name"),
-    request.getParameter("OK"));
-}
-}
-What is the output when the form is submitted?</t>
-  </si>
-  <si>
-    <t>public class Test extends HttpServlet {
-private Integer parameter1;
-private Integer parameter2;
-result=(parameter1+parameter2);
-response.write("result",result);
-There may be mistakes.How you can handle it?</t>
-  </si>
-  <si>
-    <t>You need to retrieve the username cookie from an HTTP request. If this cookie does NOT exist, then the c variable will be null. Which code snippet must be used to retrieve this cookie object?</t>
   </si>
   <si>
     <t>How to send a cookie</t>
@@ -259,6 +218,25 @@
   </si>
   <si>
     <t>In which file do we define a servlet mapping?</t>
+  </si>
+  <si>
+    <t>Servlet extends which class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onsite links may contain a _relative pathname.____ pathname, while hyperlinks to pages on other Websites must contain an _absolute ___ pathname ******************************************************Hyperlinks to pages on another Web site must contain an absolute pathname, while onsite links may contain a relative pathname. True. Every Web page is composed of a head and a body. True. It is possible to create a list within a list. True.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To use the caption in fieldset&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&lt;legend&gt; </t>
+  </si>
+  <si>
+    <t>Which of the following is a component of CSS style rule?**********A. Selector
+B. Property
+C. Value
+D. All of the above
+Answer: Option D</t>
+  </si>
+  <si>
+    <t>Which of the following property is used to underline, overline, and strikethrough text?((((((text Decoration</t>
   </si>
   <si>
     <r>
@@ -290,27 +268,49 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>to hello.jsp from a doGet() method?</t>
+      <t>to hello.jsp from a doGet() method?*************response.sendRedirect(“hello.jsp”);</t>
     </r>
   </si>
   <si>
-    <t>Servlet extends which class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onsite links may contain a _relative pathname.____ pathname, while hyperlinks to pages on other Websites must contain an _absolute ___ pathname ******************************************************Hyperlinks to pages on another Web site must contain an absolute pathname, while onsite links may contain a relative pathname. True. Every Web page is composed of a head and a body. True. It is possible to create a list within a list. True.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To use the caption in fieldset&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&lt;legend&gt; </t>
-  </si>
-  <si>
-    <t>Which of the following is a component of CSS style rule?**********A. Selector
-B. Property
-C. Value
-D. All of the above
-Answer: Option D</t>
-  </si>
-  <si>
-    <t>Which of the following property is used to underline, overline, and strikethrough text?((((((text Decoration</t>
+    <t>You need to retrieve the username cookie from an HTTP request. If this cookie does NOT exist, then the c variable will be null. Which code snippet must be used to retrieve this cookie object?**************************************Answer : Cookie c = null; Cookie[] cookies = request.getCookies(); for ( int i = 0; i &lt; cookies.length; i++ ) { if ( cookies[i].getName().equals("username") ) { c = cookies[i]; break; } }</t>
+  </si>
+  <si>
+    <t>public class Test extends HttpServlet {
+private Integer parameter1;
+private Integer parameter2;
+result=(parameter1+parameter2);
+response.write("result",result);
+There may be mistakes.How you can handle it?*******first doesn’t allow private method second we should use req.get parametter,third resp.get writter</t>
+  </si>
+  <si>
+    <t>Consider this form.
+&lt;form name="form" method="post" action="processor"&gt;
+   &lt;input type="text" name="name" value="OK"/&gt;
+   &lt;input name="submit" type="submit" value="OK"/&gt;
+&lt;/form&gt;
+And this servlet.
+public class Processor extends HttpServlet {
+public void doPost(HttpServletRequest request,
+                   HttpServletResponse response)
+                   throws ServletException, IOException {
+    response.getWriter().format("%s %s",
+    request.getParameter("name"),
+    request.getParameter("OK"));
+}it runs 
+}
+What is the output when the form is submitted?</t>
+  </si>
+  <si>
+    <t>If only one attribute should be selected,they must have the same __name___  attribute</t>
+  </si>
+  <si>
+    <t>If position is fixed, that is mean that(((((((((((An element with position: fixed; is positioned relative to the viewport, which means it always stays in the same place even if the page is scrolled. The top, right, bottom, and left properties are used to position the element. A fixed element does not leave a gap in the page where it would normally have been located.</t>
+  </si>
+  <si>
+    <t>The float property has values of only**********left and right</t>
+  </si>
+  <si>
+    <t>A user types the URL http://www.javaprepare.com/scwd/index.html . Which HTTP request gets generated.((((((((((((((((((((get</t>
   </si>
 </sst>
 </file>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54898DBC-2B32-42D6-B406-5423C5D399CA}">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +732,7 @@
     </row>
     <row r="8" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -742,12 +742,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
     </row>
     <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -822,177 +822,177 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="255" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
